--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/Running Bill - FSS Works.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/Running Bill - FSS Works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AE7AB-B14D-4291-9BC5-BBC9E9BC3265}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF1B4CE-DF75-4EB2-857D-ABD4AB3E6A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$N$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Fire Suppression Services</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Final Bill</t>
   </si>
   <si>
-    <t>FINAL BILL</t>
-  </si>
-  <si>
     <t>Material Amount</t>
   </si>
   <si>
@@ -188,13 +185,22 @@
     <t>BILL OF QUANTITIES (Contract Amount)</t>
   </si>
   <si>
-    <t>Total Discount 3.960% on Material &amp;  7.8514% on Labour</t>
-  </si>
-  <si>
     <t>Add 15% SST</t>
   </si>
   <si>
-    <t>Date: 15-05-2025</t>
+    <t>Executed work done</t>
+  </si>
+  <si>
+    <t>Date: 10-06-2025</t>
+  </si>
+  <si>
+    <t>Total Discount 3.960% on Material &amp; 7.8514% on Labour</t>
+  </si>
+  <si>
+    <t>Received amount</t>
+  </si>
+  <si>
+    <t>Payable Amount</t>
   </si>
 </sst>
 </file>
@@ -606,6 +612,24 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -618,18 +642,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -656,24 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,13 +706,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20410</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>88447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>81892</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>109317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1064,10 +1070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,46 +1101,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
@@ -1146,10 +1155,10 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
@@ -1159,75 +1168,75 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+      <c r="L4" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="A5" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="44" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="N6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1243,11 +1252,11 @@
       <c r="I7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="1:17" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -1261,7 +1270,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="18"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1279,7 +1288,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="58"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="18"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1299,7 +1308,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="18"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1336,12 +1345,12 @@
         <f>H11+G11</f>
         <v>231600</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="32">
         <v>260</v>
       </c>
       <c r="L11" s="10">
-        <f>K11*E11</f>
+        <f t="shared" ref="L11:L27" si="0">K11*E11</f>
         <v>148720</v>
       </c>
       <c r="M11" s="10">
@@ -1349,7 +1358,7 @@
         <v>52000</v>
       </c>
       <c r="N11" s="10">
-        <f>M11+L11</f>
+        <f t="shared" ref="N11:N27" si="1">M11+L11</f>
         <v>200720</v>
       </c>
       <c r="Q11" s="27"/>
@@ -1374,31 +1383,31 @@
         <v>400</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" ref="G12:G27" si="0">E12*D12</f>
+        <f t="shared" ref="G12:G27" si="2">E12*D12</f>
         <v>120840</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H27" si="1">F12*D12</f>
+        <f t="shared" ref="H12:H27" si="3">F12*D12</f>
         <v>16000</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" ref="I12:I27" si="2">H12+G12</f>
+        <f t="shared" ref="I12:I27" si="4">H12+G12</f>
         <v>136840</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="32">
         <v>55</v>
       </c>
       <c r="L12" s="10">
-        <f>K12*E12</f>
+        <f t="shared" si="0"/>
         <v>166155</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" ref="M12:M27" si="3">K12*F12</f>
+        <f t="shared" ref="M12:M27" si="5">K12*F12</f>
         <v>22000</v>
       </c>
       <c r="N12" s="10">
-        <f>M12+L12</f>
+        <f t="shared" si="1"/>
         <v>188155</v>
       </c>
       <c r="Q12" s="27"/>
@@ -1423,31 +1432,31 @@
         <v>500</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>158640</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15000</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>173640</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="32">
         <v>22</v>
       </c>
       <c r="L13" s="10">
-        <f>K13*E13</f>
+        <f t="shared" si="0"/>
         <v>116336</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
       <c r="N13" s="10">
-        <f>M13+L13</f>
+        <f t="shared" si="1"/>
         <v>127336</v>
       </c>
       <c r="Q13" s="27"/>
@@ -1472,31 +1481,31 @@
         <v>700</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2516580</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>231000</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2747580</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="32">
         <v>325</v>
       </c>
       <c r="L14" s="10">
-        <f>K14*E14</f>
+        <f t="shared" si="0"/>
         <v>2478450</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>227500</v>
       </c>
       <c r="N14" s="10">
-        <f>M14+L14</f>
+        <f t="shared" si="1"/>
         <v>2705950</v>
       </c>
       <c r="Q14" s="27"/>
@@ -1513,29 +1522,29 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="M15" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="10">
-        <f>K15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <f>M15+L15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="27"/>
@@ -1560,31 +1569,31 @@
         <v>5000</v>
       </c>
       <c r="G16" s="10">
+        <f t="shared" si="2"/>
+        <v>114406</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="4"/>
+        <v>119406</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
         <f t="shared" si="0"/>
         <v>114406</v>
       </c>
-      <c r="H16" s="10">
+      <c r="M16" s="10">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>119406</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="32">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10">
-        <f>K16*E16</f>
-        <v>114406</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="N16" s="10">
-        <f>M16+L16</f>
         <v>119406</v>
       </c>
       <c r="Q16" s="27"/>
@@ -1609,31 +1618,31 @@
         <v>6000</v>
       </c>
       <c r="G17" s="10">
+        <f t="shared" si="2"/>
+        <v>324618</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="4"/>
+        <v>336618</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="32">
+        <v>2</v>
+      </c>
+      <c r="L17" s="10">
         <f t="shared" si="0"/>
         <v>324618</v>
       </c>
-      <c r="H17" s="10">
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>336618</v>
-      </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="32">
-        <v>2</v>
-      </c>
-      <c r="L17" s="10">
-        <f>K17*E17</f>
-        <v>324618</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="N17" s="10">
-        <f>M17+L17</f>
         <v>336618</v>
       </c>
       <c r="Q17" s="27"/>
@@ -1658,31 +1667,31 @@
         <v>8000</v>
       </c>
       <c r="G18" s="10">
+        <f t="shared" si="2"/>
+        <v>224915</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="4"/>
+        <v>232915</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="32">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="0"/>
         <v>224915</v>
       </c>
-      <c r="H18" s="10">
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>232915</v>
-      </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="32">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10">
-        <f>K18*E18</f>
-        <v>224915</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-      <c r="N18" s="10">
-        <f>M18+L18</f>
         <v>232915</v>
       </c>
       <c r="Q18" s="27"/>
@@ -1701,29 +1710,29 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="10">
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="10">
-        <f>K19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <f>M19+L19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="27"/>
@@ -1748,31 +1757,31 @@
         <v>1000</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>454410</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>509410</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="32">
         <v>53</v>
       </c>
       <c r="L20" s="10">
-        <f>K20*E20</f>
+        <f t="shared" si="0"/>
         <v>437886</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53000</v>
       </c>
       <c r="N20" s="10">
-        <f>M20+L20</f>
+        <f t="shared" si="1"/>
         <v>490886</v>
       </c>
       <c r="Q20" s="27"/>
@@ -1789,29 +1798,29 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="10">
+      <c r="M21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="10">
-        <f>K21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <f>M21+L21</f>
         <v>0</v>
       </c>
       <c r="Q21" s="27"/>
@@ -1836,31 +1845,31 @@
         <v>1500</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>808665</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82500</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>891165</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="32">
         <v>53</v>
       </c>
       <c r="L22" s="10">
-        <f>K22*E22</f>
+        <f t="shared" si="0"/>
         <v>779259</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79500</v>
       </c>
       <c r="N22" s="10">
-        <f>M22+L22</f>
+        <f t="shared" si="1"/>
         <v>858759</v>
       </c>
       <c r="Q22" s="27"/>
@@ -1885,31 +1894,31 @@
         <v>20000</v>
       </c>
       <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>50847</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="4"/>
+        <v>70847</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="34">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10">
         <f t="shared" si="0"/>
         <v>50847</v>
       </c>
-      <c r="H23" s="10">
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="2"/>
-        <v>70847</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="34">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <f>K23*E23</f>
-        <v>50847</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="N23" s="10">
-        <f>M23+L23</f>
         <v>70847</v>
       </c>
       <c r="Q23" s="27"/>
@@ -1934,31 +1943,31 @@
         <v>20000</v>
       </c>
       <c r="G24" s="10">
+        <f t="shared" si="2"/>
+        <v>12711</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="4"/>
+        <v>32711</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="0"/>
         <v>12711</v>
       </c>
-      <c r="H24" s="10">
+      <c r="M24" s="10">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="2"/>
-        <v>32711</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="34">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <f>K24*E24</f>
-        <v>12711</v>
-      </c>
-      <c r="M24" s="10">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="N24" s="10">
-        <f>M24+L24</f>
         <v>32711</v>
       </c>
       <c r="Q24" s="27"/>
@@ -1983,31 +1992,31 @@
         <v>100000</v>
       </c>
       <c r="G25" s="10">
+        <f t="shared" si="2"/>
+        <v>127118</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="4"/>
+        <v>227118</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="34">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10">
         <f t="shared" si="0"/>
         <v>127118</v>
       </c>
-      <c r="H25" s="10">
+      <c r="M25" s="10">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="2"/>
-        <v>227118</v>
-      </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="34">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
-        <f>K25*E25</f>
-        <v>127118</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="N25" s="10">
-        <f>M25+L25</f>
         <v>227118</v>
       </c>
       <c r="Q25" s="27"/>
@@ -2032,31 +2041,31 @@
         <v>30000</v>
       </c>
       <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>16949</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="4"/>
+        <v>46949</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="34">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="0"/>
         <v>16949</v>
       </c>
-      <c r="H26" s="10">
+      <c r="M26" s="10">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="2"/>
-        <v>46949</v>
-      </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="34">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <f>K26*E26</f>
-        <v>16949</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="N26" s="10">
-        <f>M26+L26</f>
         <v>46949</v>
       </c>
       <c r="Q26" s="27"/>
@@ -2081,43 +2090,43 @@
         <v>200000</v>
       </c>
       <c r="G27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="35">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="10">
+      <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <f>K27*E27</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="N27" s="10">
-        <f>M27+L27</f>
-        <v>200000</v>
-      </c>
       <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17">
         <f>SUM(G9:G27)</f>
@@ -2131,7 +2140,7 @@
         <f>SUM(I9:I27)</f>
         <v>5956799</v>
       </c>
-      <c r="J28" s="60"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="36"/>
       <c r="L28" s="17">
         <f>SUM(L9:L27)</f>
@@ -2149,15 +2158,13 @@
     </row>
     <row r="29" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="31">
-        <v>3.9599000000000002E-2</v>
-      </c>
+      <c r="B29" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="17">
         <f>G28*3.9599%</f>
         <v>202045.93810100001</v>
@@ -2170,7 +2177,7 @@
         <f>H29+G29</f>
         <v>269136.15110100002</v>
       </c>
-      <c r="J29" s="60"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="37"/>
       <c r="L29" s="17">
         <f>L28*3.96%</f>
@@ -2187,60 +2194,72 @@
     </row>
     <row r="30" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17">
         <f>G28-G29</f>
         <v>4900253.0618989998</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" ref="H30" si="4">H28-H29</f>
+        <f t="shared" ref="H30" si="6">H28-H29</f>
         <v>787409.78700000001</v>
       </c>
       <c r="I30" s="17">
-        <f>H30+G30</f>
-        <v>5687662.8488989994</v>
-      </c>
-      <c r="J30" s="60"/>
+        <f>I28-I29</f>
+        <v>5687662.8488990003</v>
+      </c>
+      <c r="J30" s="43"/>
       <c r="K30" s="36"/>
       <c r="L30" s="17">
         <f>L28-L29</f>
         <v>4800434.5480000004</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" ref="M30:N30" si="5">M28-M29</f>
+        <f t="shared" ref="M30:N30" si="7">M28-M29</f>
         <v>774048.24</v>
       </c>
       <c r="N30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5574482.7879999997</v>
       </c>
       <c r="P30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
+      <c r="B31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="17">
+        <f t="shared" ref="G31:H31" si="8">G30*15%</f>
+        <v>735037.95928484993</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="8"/>
+        <v>118111.46805</v>
+      </c>
       <c r="I31" s="17">
         <f>I30*15%</f>
-        <v>853149.42733484984</v>
-      </c>
-      <c r="J31" s="60"/>
+        <v>853149.42733485007</v>
+      </c>
+      <c r="J31" s="43"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="L31" s="17">
+        <f t="shared" ref="L31:M31" si="9">L30*15%</f>
+        <v>720065.18220000004</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="9"/>
+        <v>116107.23599999999</v>
+      </c>
       <c r="N31" s="17">
         <f>N30*15%</f>
         <v>836172.41819999996</v>
@@ -2250,68 +2269,136 @@
     </row>
     <row r="32" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="17">
+        <f t="shared" ref="G32:H32" si="10">G31+G30</f>
+        <v>5635291.0211838502</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="10"/>
+        <v>905521.25505000004</v>
+      </c>
       <c r="I32" s="17">
         <f>I31+I30</f>
-        <v>6540812.2762338491</v>
-      </c>
-      <c r="J32" s="60"/>
+        <v>6540812.27623385</v>
+      </c>
+      <c r="J32" s="43"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="L32" s="17">
+        <f t="shared" ref="L32:M32" si="11">L31+L30</f>
+        <v>5520499.7302000001</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="11"/>
+        <v>890155.47600000002</v>
+      </c>
       <c r="N32" s="17">
         <f>N31+N30</f>
         <v>6410655.2061999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+    <row r="33" spans="1:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="17">
+        <v>1156460</v>
+      </c>
+      <c r="M33" s="17">
+        <v>181104</v>
+      </c>
+      <c r="N33" s="17">
+        <f>M33+L33</f>
+        <v>1337564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="17">
+        <f t="shared" ref="L34:M34" si="12">L32-L33</f>
+        <v>4364039.7302000001</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="12"/>
+        <v>709051.47600000002</v>
+      </c>
+      <c r="N34" s="17">
+        <f>N32-N33</f>
+        <v>5073091.2061999999</v>
+      </c>
+      <c r="P34" s="28"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="44"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:B3"/>
@@ -2323,16 +2410,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>